--- a/movies.xlsx
+++ b/movies.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,75 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice in Wonderland
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1h 48m</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(500) Days of Summer
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1h 35m</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Silence of the Lambs
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1h 58m</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/movies.xlsx
+++ b/movies.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>'2010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>'2009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>'1991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/movies.xlsx
+++ b/movies.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,29 @@
           <t>1h 48m</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>436000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mia Wasikowska, Johnny Depp, Helena Bonham Carter</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tim Burton</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nineteen-year-old Alice returns to the magical world from her childhood adventure, where she reunites with her old friends and learns of her true destiny: to end the Red Queen's reign of terror.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,11 +521,29 @@
           <t>1h 35m</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>549000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Zooey Deschanel, Joseph Gordon-Levitt, Geoffrey Arend</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Marc Webb</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>After being dumped by the girl he believes to be his soulmate, hopeless romantic Tom Hansen reflects on their relationship to try and figure out where things went wrong and how he can win her back.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -526,11 +562,111 @@
           <t>1h 58m</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jodie Foster, Anthony Hopkins, Scott Glenn</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Jonathan Demme</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A young F.B.I. cadet must receive the help of an incarcerated and manipulative cannibal killer to help catch another serial killer, a madman who skins his victims.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amsterdam
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2h 14m</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Christian Bale, Margot Robbie, John David Washington</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>David O. Russell</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>In the 1930s, three friends witness a murder, are framed for it, and uncover one of the most outrageous plots in American history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RocknRolla
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>'2008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1h 54m</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>263000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gerard Butler, Tom Wilkinson, Idris Elba</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>When a Russian mobster orchestrates a crooked land deal, millions of dollars are up for grabs, drawing in the entire London underworld into a feeding frenzy at a time when the old criminal regime is losing turf to a wealthy foreign mob.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/movies.xlsx
+++ b/movies.xlsx
@@ -46,8 +46,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,258 +419,3983 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="56" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="241" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Movie title</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Popularity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Popularity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Actors</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Director</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice in Wonderland
-</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>The Shawshank Redemption</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>'1994</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>2h 22m</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Tim Robbins, Morgan Freeman, Bob Gunton</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Frank Darabont</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Over the course of several years, two convicts form a friendship, seeking consolation and, eventually, redemption through basic compassion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Schindler's List</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>'1993</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>3h 15m</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Liam Neeson, Ralph Fiennes, Ben Kingsley</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Steven Spielberg</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>In German-occupied Poland during World War II, industrialist Oskar Schindler gradually becomes concerned for his Jewish workforce after witnessing their persecution by the Nazis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Return of the King</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>'2003</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3h 21m</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Elijah Wood, Viggo Mortensen, Ian McKellen</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Gandalf and Aragorn lead the World of Men against Sauron's army to draw his gaze from Frodo and Sam as they approach Mount Doom with the One Ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Pulp Fiction</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>'1994</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2h 34m</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>John Travolta, Uma Thurman, Samuel L. Jackson</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>The lives of two mob hitmen, a boxer, a gangster and his wife, and a pair of diner bandits intertwine in four tales of violence and redemption.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>'2001</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2h 58m</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Elijah Wood, Ian McKellen, Orlando Bloom</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>A meek Hobbit from the Shire and eight companions set out on a journey to destroy the powerful One Ring and save Middle-earth from the Dark Lord Sauron.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Forrest Gump</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>'1994</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2h 22m</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Tom Hanks, Robin Wright, Gary Sinise</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Robert Zemeckis</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>The history of the United States from the 1950s to the '70s unfolds from the perspective of an Alabama man with an IQ of 75, who yearns to be reunited with his childhood sweetheart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Fight Club</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>'1999</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2h 19m</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Brad Pitt, Edward Norton, Meat Loaf</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>An insomniac office worker and a devil-may-care soap maker form an underground fight club that evolves into much more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Inception</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>'2010</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2h 28m</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio, Joseph Gordon-Levitt, Elliot Page</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>A thief who steals corporate secrets through the use of dream-sharing technology is given the inverse task of planting an idea into the mind of a C.E.O., but his tragic past may doom the project and his team to disaster.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>'2002</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2h 59m</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Elijah Wood, Ian McKellen, Viggo Mortensen</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>While Frodo and Sam edge closer to Mordor with the help of the shifty Gollum, the divided fellowship makes a stand against Sauron's new ally, Saruman, and his hordes of Isengard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>The Silence of the Lambs</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>'1991</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1h 58m</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Jodie Foster, Anthony Hopkins, Scott Glenn</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Jonathan Demme</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>A young F.B.I. cadet must receive the help of an incarcerated and manipulative cannibal killer to help catch another serial killer, a madman who skins his victims.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Se7en</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>'1995</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2h 7m</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Morgan Freeman, Brad Pitt, Kevin Spacey</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Two detectives, a rookie and a veteran, hunt a serial killer who uses the seven deadly sins as his motives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>The Green Mile</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>'1999</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3h 9m</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Tom Hanks, Michael Clarke Duncan, David Morse</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Frank Darabont</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>A tale set on death row in a Southern jail, where gentle giant John possesses the mysterious power to heal people's ailments. When the lead guard, Paul, recognizes John's gift, he tries to help stave off the condemned man's execution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Léon: The Professional</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>'1994</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1h 50m</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Jean Reno, Gary Oldman, Natalie Portman</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Luc Besson</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12-year-old Mathilda is reluctantly taken in by Léon, a professional assassin, after her family is murdered. An unusual relationship forms as she becomes his protégée and learns the assassin's trade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>American History X</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>'1998</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1h 59m</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Edward Norton, Edward Furlong, Beverly D'Angelo</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Tony Kaye</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Living a life marked by violence, neo-Nazi Derek finally goes to prison after killing two black youths. Upon his release, Derek vows to change; he hopes to prevent his brother, Danny, who idolizes Derek, from following in his footsteps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>The Intouchables</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>'2011</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>915000</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1h 52m</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>François Cluzet, Omar Sy, Anne Le Ny</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Olivier Nakache</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>After he becomes a quadriplegic from a paragliding accident, an aristocrat hires a young man from the projects to be his caregiver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Django Unchained</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>'2012</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2h 45m</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Jamie Foxx, Christoph Waltz, Leonardo DiCaprio</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>With the help of a German bounty-hunter, a freed slave sets out to rescue his wife from a brutal plantation owner in Mississippi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>'2017</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>575000</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1h 45m</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Anthony Gonzalez, Gael García Bernal, Benjamin Bratt</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Lee Unkrich</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Aspiring musician Miguel, confronted with his family's ancestral ban on music, enters the Land of the Dead to find his great-great-grandfather, a legendary singer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>'2009</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1h 36m</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Edward Asner, Jordan Nagai, John Ratzenberger</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Pete Docter</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>78-year-old Carl Fredricksen travels to Paradise Falls in his house equipped with balloons, inadvertently taking a young stowaway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Reservoir Dogs</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>'1992</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1h 39m</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Harvey Keitel, Tim Roth, Michael Madsen</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>When a simple jewelry heist goes horribly wrong, the surviving criminals begin to suspect that one of them is a police informant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Toy Story</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>'1995</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1h 21m</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Tom Hanks, Tim Allen, Don Rickles</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>John Lasseter</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>A cowboy doll is profoundly threatened and jealous when a new spaceman action figure supplants him as top toy in a boy's bedroom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Good Will Hunting</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>'1997</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2h 6m</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Robin Williams, Matt Damon, Ben Affleck</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Gus Van Sant</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Will Hunting, a janitor at M.I.T., has a gift for mathematics, but needs help from a psychologist to find direction in his life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>American Beauty</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>'1999</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2h 2m</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Kevin Spacey, Annette Bening, Thora Birch</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Sam Mendes</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>A sexually frustrated suburban father has a mid-life crisis after becoming infatuated with his daughter's best friend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Amélie</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>'2001</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>787000</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2h 2m</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Audrey Tautou, Mathieu Kassovitz, Rufus</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Jean-Pierre Jeunet</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Despite being caught in her imaginative world, Amelie, a young waitress, decides to help people find happiness. Her quest to spread joy leads her on a journey where she finds true love.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Spider-Man: No Way Home</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>'2021</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>857000</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2h 28m</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Tom Holland, Zendaya, Benedict Cumberbatch</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Jon Watts</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>With Spider-Man's identity now revealed, Peter asks Doctor Strange for help. When a spell goes wrong, dangerous foes from other worlds start to appear, forcing Peter to discover what it truly means to be Spider-Man.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Shutter Island</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>'2010</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2h 18m</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio, Emily Mortimer, Mark Ruffalo</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Martin Scorsese</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Teddy Daniels and Chuck Aule, two US marshals, are sent to an asylum on a remote island in order to investigate the disappearance of a patient, where Teddy uncovers a shocking truth about the place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Snatch</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>'2000</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>899000</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1h 42m</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Jason Statham, Brad Pitt, Stephen Graham</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Unscrupulous boxing promoters, violent bookmakers, a Russian gangster, incompetent amateur robbers and supposedly Jewish jewelers fight to track down a priceless stolen diamond.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Trainspotting</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>'1996</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>718000</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1h 33m</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Ewan McGregor, Ewen Bremner, Jonny Lee Miller</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Danny Boyle</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Renton, deeply immersed in the Edinburgh drug scene, tries to clean up and get out despite the allure of drugs and the influence of friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Deathly Hallows: Part 2</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>'2011</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>935000</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2h 10m</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Radcliffe, Emma Watson, Rupert Grint</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>David Yates</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Harry, Ron, and Hermione search for Voldemort's remaining Horcruxes in their effort to destroy the Dark Lord as the final battle rages on at Hogwarts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Prisoners</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>791000</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2h 33m</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Hugh Jackman, Jake Gyllenhaal, Viola Davis</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>When Keller Dover's daughter and her friend go missing, he takes matters into his own hands as the police pursue multiple leads and the pressure mounts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Spotlight</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>'2015</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>496000</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>2h 9m</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Mark Ruffalo, Michael Keaton, Rachel McAdams</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Tom McCarthy</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>The true story of how the Boston Globe uncovered the massive scandal of child molestation and cover-up within the local Catholic Archdiocese, shaking the entire Catholic Church to its core.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Ford v Ferrari</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>'2019</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>453000</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2h 32m</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Matt Damon, Christian Bale, Jon Bernthal</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>James Mangold</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>American car designer Carroll Shelby and driver Ken Miles battle corporate interference and the laws of physics to build a revolutionary race car for Ford in order to defeat Ferrari at the 24 Hours of Le Mans in 1966.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>507000</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2h 3m</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Brühl, Chris Hemsworth, Olivia Wilde</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Ron Howard</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>The merciless 1970s rivalry between Formula One rivals James Hunt and Niki Lauda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Inside Out</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>'2015</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>771000</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>1h 35m</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Amy Poehler, Bill Hader, Lewis Black</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Pete Docter</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>After young Riley is uprooted from her Midwest life and moved to San Francisco, her emotions - Joy, Fear, Anger, Disgust and Sadness - conflict on how best to navigate a new city, house, and school.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Gone Girl</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>2h 29m</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Ben Affleck, Rosamund Pike, Neil Patrick Harris</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>With his wife's disappearance having become the focus of an intense media circus, a man sees the spotlight turned on him when it's suspected that he may not be innocent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>The Grand Budapest Hotel</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>874000</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1h 39m</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Ralph Fiennes, F. Murray Abraham, Mathieu Amalric</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Wes Anderson</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>A writer encounters the owner of an aging high-class hotel, who tells him of his early years serving as a lobby boy in the hotel's glorious years under an exceptional concierge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Scent of a Woman</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>'1992</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>324000</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>2h 36m</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Al Pacino, Chris O'Donnell, James Rebhorn</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Martin Brest</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>A prep school student needing money agrees to "babysit" a blind man, but the job is not at all what he anticipated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Groundhog Day</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>'1993</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>674000</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>1h 41m</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Bill Murray, Andie MacDowell, Chris Elliott</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Harold Ramis</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>A narcissistic, self-centered weatherman finds himself in a time loop on Groundhog Day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Dune</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>'2021</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>746000</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>2h 35m</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Timothée Chalamet, Rebecca Ferguson, Zendaya</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>A noble family becomes embroiled in a war for control over the galaxy's most valuable asset while its heir becomes troubled by visions of a dark future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>The Revenant</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>'2015</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>860000</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>2h 36m</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio, Tom Hardy, Will Poulter</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Alejandro G. Iñárritu</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>A frontiersman on a fur trading expedition in the 1820s fights for survival after being mauled by a bear and left for dead by members of his own hunting team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Her</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>659000</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>2h 6m</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Joaquin Phoenix, Amy Adams, Scarlett Johansson</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Spike Jonze</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>In a near future, a lonely writer develops an unlikely relationship with an operating system designed to meet his every need.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>'1997</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>3h 14m</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio, Kate Winslet, Billy Zane</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>James Cameron</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>A seventeen-year-old aristocrat falls in love with a kind but poor artist aboard the luxurious, ill-fated R.M.S. Titanic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Toy Story 2</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>'1999</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>613000</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>1h 32m</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Tom Hanks, Tim Allen, Joan Cusack</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>John Lasseter</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>When Woody is stolen by a toy collector, Buzz and his friends set out on a rescue mission to save Woody before he becomes a museum toy property with his roundup gang Jessie, Prospector, and Bullseye.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Shrek</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>'2001</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>723000</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>1h 30m</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Mike Myers, Eddie Murphy, Cameron Diaz</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Andrew Adamson</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>A mean lord exiles fairytale creatures to the swamp of a grumpy ogre, who must go on a quest and rescue a princess for the lord in order to get his land back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>The Social Network</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>'2010</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>749000</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Jesse Eisenberg, Andrew Garfield, Justin Timberlake</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>As Harvard student Mark Zuckerberg creates the social networking site that would become known as Facebook, he is sued by the twins who claimed he stole their idea and by the co-founder who was later squeezed out of the business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>The Girl with the Dragon Tattoo</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>'2011</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>489000</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>2h 38m</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Craig, Rooney Mara, Christopher Plummer</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Journalist Mikael Blomkvist is aided in his search for a woman who has been missing for 40 years by young computer hacker Lisbeth Salander.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>The Big Short</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>'2015</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>475000</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>2h 10m</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Christian Bale, Steve Carell, Ryan Gosling</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Adam McKay</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>In 2006-2007 a group of investors bet against the United States mortgage market. In their research, they discover how flawed and corrupt the market is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>The Batman</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>762000</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>2h 56m</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Robert Pattinson, Zoë Kravitz, Jeffrey Wright</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Matt Reeves</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>When a sadistic serial killer begins murdering key political figures in Gotham, Batman is forced to investigate the city's hidden corruption and question his family's involvement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Big Hero 6</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>494000</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>1h 42m</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Ryan Potter, Scott Adsit, Jamie Chung</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Don Hall</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>A special bond develops between plus-sized inflatable robot Baymax and prodigy Hiro Hamada, who together team up with a group of friends to form a band of high-tech heroes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>500 Days of Summer</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>'2009</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>549000</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>1h 35m</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Zooey Deschanel, Joseph Gordon-Levitt, Geoffrey Arend</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Marc Webb</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>After being dumped by the girl he believes to be his soulmate, hopeless romantic Tom Hansen reflects on their relationship to try and figure out where things went wrong and how he can win her back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>The Hangover</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>'2009</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>834000</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>1h 40m</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Zach Galifianakis, Bradley Cooper, Justin Bartha</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Todd Phillips</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Three buddies wake up from a bachelor party in Las Vegas, with no memory of the previous night and the bachelor missing. They make their way around the city in order to find their friend before his wedding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>The Game</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>'1997</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>423000</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2h 9m</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Michael Douglas, Deborah Kara Unger, Sean Penn</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>After a wealthy San Francisco banker is given an opportunity to participate in a mysterious game, his life is turned upside down as he begins to question if it might really be a concealed conspiracy to destroy him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>The Lego Movie</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>384000</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>1h 40m</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Chris Pratt, Will Ferrell, Elizabeth Banks</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Phil Lord</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>An ordinary LEGO construction worker, thought to be the prophesied as "special", is recruited to join a quest to stop an evil tyrant from gluing the LEGO universe into eternal stasis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Wreck-It Ralph</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>'2012</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>452000</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1h 41m</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>John C. Reilly, Jack McBrayer, Jane Lynch</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Rich Moore</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>A video game villain wants to be a hero and sets out to fulfill his dream, but his quest brings havoc to the whole arcade where he lives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Toy Story 4</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>'2019</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>1h 40m</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Tom Hanks, Tim Allen, Annie Potts</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Josh Cooley</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>When a new toy called "Forky" joins Woody and the gang, a road trip alongside old and new friends reveals how big the world can be for a toy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Ocean's Eleven</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>'2001</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>610000</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>1h 56m</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>George Clooney, Brad Pitt, Julia Roberts</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Steven Soderbergh</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Danny Ocean and his ten accomplices plan to rob three Las Vegas casinos simultaneously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Despicable Me</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>'2010</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>576000</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>1h 35m</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Steve Carell, Jason Segel, Russell Brand</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Pierre Coffin</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>When a criminal mastermind uses a trio of orphan girls as pawns for a grand scheme, he finds their love is profoundly changing him for the better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>American Psycho</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>'2000</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>698000</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>1h 42m</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Christian Bale, Justin Theroux, Josh Lucas</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Mary Harron</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>A wealthy New York City investment banking executive, Patrick Bateman, hides his alternate psychopathic ego from his co-workers and friends as he delves deeper into his violent, hedonistic fantasies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Harry Potter and the Sorcerer's Stone</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>'2001</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>844000</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>2h 32m</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Radcliffe, Rupert Grint, Richard Harris</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Chris Columbus</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>An orphaned boy enrolls in a school of wizardry, where he learns the truth about himself, his family and the terrible evil that haunts the magical world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Scream</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>'1996</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>383000</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>1h 51m</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Neve Campbell, Courteney Cox, David Arquette</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Wes Craven</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>A year after the murder of her mother, a teenage girl is terrorized by a masked killer who targets her and her friends by using scary movies as part of a deadly game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Beautiful Boy</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>'2018</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Steve Carell, Maura Tierney, Jack Dylan Grazer</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Felix van Groeningen</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Based on the best-selling pair of memoirs from father and son David and Nic Sheff, Beautiful Boy chronicles the heartbreaking and inspiring experience of survival, relapse and recovery in a family coping with addiction over many years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Spider-Man</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>'2002</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>867000</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>2h 1m</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Tobey Maguire, Kirsten Dunst, Willem Dafoe</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Sam Raimi</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>After being bitten by a genetically-modified spider, a shy teenager gains spider-like abilities that he uses to fight injustice as a masked superhero and face a vengeful enemy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Spider-Man: Homecoming</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>'2017</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>708000</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>2h 13m</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Tom Holland, Michael Keaton, Robert Downey Jr.</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Jon Watts</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Peter Parker balances his life as an ordinary high school student in Queens with his superhero alter-ego Spider-Man, and finds himself on the trail of a new menace prowling the skies of New York City.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>657000</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>1h 42m</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Kristen Bell, Idina Menzel, Jonathan Groff</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Chris Buck</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>When the newly crowned Queen Elsa accidentally uses her power to turn things into ice to curse her home in infinite winter, her sister Anna teams up with a mountain man, his playful reindeer, and a snowman to change the weather condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Bullet Train</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>406000</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>2h 7m</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Brad Pitt, Joey King, Aaron Taylor-Johnson</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>David Leitch</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>Five assassins aboard a swiftly-moving bullet train find out that their missions have something in common.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>10 Things I Hate About You</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>'1999</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>1h 37m</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Heath Ledger, Julia Stiles, Joseph Gordon-Levitt</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Gil Junger</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>A high-school boy, Cameron, cannot date Bianca until her anti-social older sister, Kat, has a boyfriend. So, Cameron pays a mysterious boy, Patrick, to charm Kat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Despicable Me 2</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>421000</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>1h 38m</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Steve Carell, Kristen Wiig, Benjamin Bratt</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Pierre Coffin</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>When Gru, the world's most super-bad turned super-dad has been recruited by a team of officials to stop lethal muscle and a host of Gru's own, He has to fight back with new gadgetry, cars, and more minion madness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RocknRolla</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>'2008</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>263000</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>1h 54m</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Gerard Butler, Tom Wilkinson, Idris Elba</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>When a Russian mobster orchestrates a crooked land deal, millions of dollars are up for grabs, drawing in the entire London underworld into a feeding frenzy at a time when the old criminal regime is losing turf to a wealthy foreign mob.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Don't Look Up</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>'2021</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>586000</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>2h 18m</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio, Jennifer Lawrence, Meryl Streep</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Adam McKay</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Two low-level astronomers must go on a giant media tour to warn humankind of an approaching comet that will destroy planet Earth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>The Great Gatsby</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>587000</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>2h 23m</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio, Carey Mulligan, Joel Edgerton</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Baz Luhrmann</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>A writer and wall street trader, Nick Carraway, finds himself drawn to the past and lifestyle of his mysterious millionaire neighbor, Jay Gatsby, amid the riotous parties of the Jazz Age.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Monsters University</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>384000</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>1h 44m</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Billy Crystal, John Goodman, Steve Buscemi</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Dan Scanlon</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>A look at the relationship between Mike Wazowski (Billy Crystal) and James P. "Sully" Sullivan (John Goodman) during their days at Monsters University, when they weren't necessarily the best of friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Licorice Pizza</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>'2021</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>137000</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>2h 13m</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Alana Haim, Cooper Hoffman, Sean Penn</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Paul Thomas Anderson</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>The story of Alana Kane and Gary Valentine growing up, running around and going through the treacherous navigation of first love in the San Fernando Valley, 1973.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>The Northman</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>246000</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>2h 17m</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>Alexander Skarsgård, Nicole Kidman, Claes Bang</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>Robert Eggers</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>A young Viking prince is on a quest to avenge his father's murder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Easy A</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>'2010</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>412000</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>1h 32m</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Emma Stone, Amanda Bynes, Penn Badgley</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Will Gluck</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>A clean-cut high school student relies on the school's rumor mill to advance her social and financial standing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>American Pie</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>'1999</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>429000</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>1h 35m</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Jason Biggs, Chris Klein, Thomas Ian Nicholas</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Paul Weitz</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Four teenage boys enter a pact to lose their virginity by prom night.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>We're the Millers</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>'2013</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>481000</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>1h 50m</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Jason Sudeikis, Jennifer Aniston, Emma Roberts</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>Rawson Marshall Thurber</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>A veteran pot dealer creates a fake family as part of his plan to move a huge shipment of weed into the U.S. from Mexico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Home Alone 2: Lost in New York</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>'1992</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>398000</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Macaulay Culkin, Joe Pesci, Daniel Stern</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Chris Columbus</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>One year after Kevin McCallister was left home alone and had to defeat a pair of bumbling burglars, he accidentally finds himself stranded in New York City - and the same criminals are not far behind.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Iron Man 2</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>'2010</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>859000</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>2h 4m</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Robert Downey Jr., Mickey Rourke, Gwyneth Paltrow</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Jon Favreau</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>With the world now aware of his identity as Iron Man, Tony Stark must contend with both his declining health and a vengeful mad man with ties to his father's legacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Maleficent</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>396000</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>1h 37m</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Angelina Jolie, Elle Fanning, Sharlto Copley</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Robert Stromberg</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>A vengeful fairy is driven to curse an infant princess, only to discover that the child could be the one person who can restore peace to their troubled land.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Nope</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>256000</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>2h 10m</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Kaluuya, Keke Palmer, Brandon Perea</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Jordan Peele</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>The residents of a lonely gulch in inland California bear witness to an uncanny and chilling discovery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Panic Room</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>'2002</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>294000</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>1h 52m</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Jodie Foster, Kristen Stewart, Forest Whitaker</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>A divorced woman and her diabetic daughter take refuge in their newly-purchased house's safe room when three men break-in, searching for a missing fortune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Project X</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>'2012</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>229000</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>1h 28m</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Thomas Mann, Oliver Cooper, Jonathan Daniel Brown</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Nima Nourizadeh</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Three high-school seniors throw a birthday party to make a name for themselves. As the night progresses, things spiral out of control as word of the party spreads.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Miss Peregrine's Home for Peculiar Children</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>'2016</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>186000</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>2h 7m</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Eva Green, Asa Butterfield, Samuel L. Jackson</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Tim Burton</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>When Jacob (Asa Butterfield) discovers clues to a mystery that stretches across time, he finds Miss Peregrine's Home for Peculiar Children. But the danger deepens after he gets to know the residents and learns about their special powers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Final Destination</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>'2000</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>276000</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>1h 38m</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Devon Sawa, Ali Larter, Kerr Smith</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>James Wong</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Death stalks Alex Browning and a group of high school students, who survived a doomed airliner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>House of Gucci</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>'2021</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>156000</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>2h 38m</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Lady Gaga, Adam Driver, Al Pacino</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>When Patrizia Reggiani, an outsider from humble beginnings, marries into the Gucci family, her unbridled ambition begins to unravel their legacy and triggers a reckless spiral of betrayal, decadence, revenge, and ultimately...murder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>The Amazing Spider-Man 2</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>531000</v>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>2h 22m</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Andrew Garfield, Emma Stone, Jamie Foxx</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Marc Webb</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>When New York is put under siege by Oscorp, it is up to Spider-Man to save the city he swore to protect as well as his loved ones.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>See How They Run</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>1h 38m</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Kieran Hodgson, Pearl Chanda, Gregory Cox</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Tom George</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>In the West End of 1950s London, plans for a movie version of a smash-hit play come to an abrupt halt after a pivotal member of the crew is murdered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Friends with Benefits</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>'2011</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>390000</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>1h 49m</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Mila Kunis, Justin Timberlake, Patricia Clarkson</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Will Gluck</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>A young man and woman decide to take their friendship to the next level without becoming a couple, but soon discover that adding sex only leads to complications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Alice in Wonderland</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>'2010</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>436000</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>1h 48m</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Mia Wasikowska, Johnny Depp, Helena Bonham Carter</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Tim Burton</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Nineteen-year-old Alice returns to the magical world from her childhood adventure, where she reunites with her old friends and learns of her true destiny: to end the Red Queen's reign of terror.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Fall</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>6.4</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>436000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mia Wasikowska, Johnny Depp, Helena Bonham Carter</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Tim Burton</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nineteen-year-old Alice returns to the magical world from her childhood adventure, where she reunites with her old friends and learns of her true destiny: to end the Red Queen's reign of terror.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(500) Days of Summer
-</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>'2009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1h 35m</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>549000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Zooey Deschanel, Joseph Gordon-Levitt, Geoffrey Arend</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Marc Webb</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>After being dumped by the girl he believes to be his soulmate, hopeless romantic Tom Hansen reflects on their relationship to try and figure out where things went wrong and how he can win her back.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Silence of the Lambs
-</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>'1991</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1h 58m</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jodie Foster, Anthony Hopkins, Scott Glenn</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Jonathan Demme</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A young F.B.I. cadet must receive the help of an incarcerated and manipulative cannibal killer to help catch another serial killer, a madman who skins his victims.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amsterdam
-</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>'2022</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D90" s="2" t="n">
+        <v>99000</v>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>1h 47m</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Grace Caroline Currey, Virginia Gardner, Mason Gooding</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Scott Mann</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>When a high-rise climb goes wrong, best friends Becky and Hunter find themselves stuck at the top of a 2,000-foot TV tower.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Minions</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>'2015</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>1h 31m</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Sandra Bullock, Jon Hamm, Michael Keaton</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Kyle Balda</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>Minions Stuart, Kevin, and Bob are recruited by Scarlet Overkill, a supervillain who, alongside her inventor husband Herb, hatches a plot to take over the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Scream</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>1h 54m</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>Neve Campbell, Courteney Cox, David Arquette</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>Matt Bettinelli-Olpin</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>25 years after a streak of brutal murders shocked the quiet town of Woodsboro, Calif., a new killer dons the Ghostface mask and begins targeting a group of teenagers to resurrect secrets from the town's deadly past.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Scream 2</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>'1997</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>207000</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>2h</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>Neve Campbell, Courteney Cox, David Arquette</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Wes Craven</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Two years after the first series of murders, as Sidney acclimates to college life, someone donning the Ghostface costume begins a new string of killings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Scary Movie</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>'2000</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>283000</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>1h 28m</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Anna Faris, Jon Abrahams, Marlon Wayans</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Keenen Ivory Wayans</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>A year after disposing of the body of a man they accidentally killed, a group of dumb teenagers are stalked by a bumbling serial killer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Neighbors</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>'2014</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>326000</v>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>1h 37m</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Seth Rogen, Rose Byrne, Zac Efron</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Nicholas Stoller</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>After they are forced to live next to a fraternity house, a couple with a newborn baby do whatever they can to take them down.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Cars 2</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>'2011</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>213000</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>1h 46m</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>Owen Wilson, Larry the Cable Guy, Michael Caine</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>John Lasseter</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Star race car Lightning McQueen and his pal Mater head overseas to compete in the World Grand Prix race. But the road to the championship becomes rocky as Mater gets caught up in an intriguing adventure of his own: international espionage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Scream 4</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>'2011</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>1h 51m</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>Neve Campbell, Courteney Cox, David Arquette</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Wes Craven</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Ten years have passed, and Sidney Prescott, who has put herself back together thanks in part to her writing, is visited by the Ghostface Killer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
         <is>
           <t>2h 14m</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Christian Bale, Margot Robbie, John David Washington</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>David O. Russell</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>In the 1930s, three friends witness a murder, are framed for it, and uncover one of the most outrageous plots in American history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Ticket to Paradise</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>6.1</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Christian Bale, Margot Robbie, John David Washington</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>David O. Russell</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>In the 1930s, three friends witness a murder, are framed for it, and uncover one of the most outrageous plots in American history.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RocknRolla
-</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>'2008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1h 54m</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>263000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gerard Butler, Tom Wilkinson, Idris Elba</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Guy Ritchie</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>When a Russian mobster orchestrates a crooked land deal, millions of dollars are up for grabs, drawing in the entire London underworld into a feeding frenzy at a time when the old criminal regime is losing turf to a wealthy foreign mob.</t>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>'2022</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>1h 44m</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>George Clooney, Sean Lynch, Julia Roberts</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Ol Parker</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>A divorced couple teams up and travels to Bali to stop their daughter from making the same mistake they think they made 25 years ago.</t>
         </is>
       </c>
     </row>

--- a/movies.xlsx
+++ b/movies.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 07m</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3h 9m</t>
+          <t>3h 09m</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>2h 06m</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 02m</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 02m</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 09m</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2h 3m</t>
+          <t>2h 03m</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>2h 06m</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 09m</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 01m</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 07m</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 04m</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
@@ -3642,47 +3642,47 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Panic Room</t>
+          <t>Project X</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>'2002</t>
+          <t>'2012</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>294000</v>
+        <v>229000</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>Jodie Foster, Kristen Stewart, Forest Whitaker</t>
+          <t>Thomas Mann, Oliver Cooper, Jonathan Daniel Brown</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>David Fincher</t>
+          <t>Nima Nourizadeh</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>A divorced woman and her diabetic daughter take refuge in their newly-purchased house's safe room when three men break-in, searching for a missing fortune.</t>
+          <t>Three high-school seniors throw a birthday party to make a name for themselves. As the night progresses, things spiral out of control as word of the party spreads.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Project X</t>
+          <t>Miss Peregrine's Home for Peculiar Children</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -3692,37 +3692,37 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>'2012</t>
+          <t>'2016</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>229000</v>
+        <v>186000</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>2h 07m</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>Thomas Mann, Oliver Cooper, Jonathan Daniel Brown</t>
+          <t>Eva Green, Asa Butterfield, Samuel L. Jackson</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Nima Nourizadeh</t>
+          <t>Tim Burton</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>Three high-school seniors throw a birthday party to make a name for themselves. As the night progresses, things spiral out of control as word of the party spreads.</t>
+          <t>When Jacob (Asa Butterfield) discovers clues to a mystery that stretches across time, he finds Miss Peregrine's Home for Peculiar Children. But the danger deepens after he gets to know the residents and learns about their special powers.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Miss Peregrine's Home for Peculiar Children</t>
+          <t>Final Destination</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -3732,77 +3732,77 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>'2016</t>
+          <t>'2000</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>186000</v>
+        <v>276000</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>Eva Green, Asa Butterfield, Samuel L. Jackson</t>
+          <t>Devon Sawa, Ali Larter, Kerr Smith</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Tim Burton</t>
+          <t>James Wong</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>When Jacob (Asa Butterfield) discovers clues to a mystery that stretches across time, he finds Miss Peregrine's Home for Peculiar Children. But the danger deepens after he gets to know the residents and learns about their special powers.</t>
+          <t>Death stalks Alex Browning and a group of high school students, who survived a doomed airliner.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Final Destination</t>
+          <t>House of Gucci</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>'2000</t>
+          <t>'2021</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>276000</v>
+        <v>156000</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 38m</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>Devon Sawa, Ali Larter, Kerr Smith</t>
+          <t>Lady Gaga, Adam Driver, Al Pacino</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>James Wong</t>
+          <t>Ridley Scott</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>Death stalks Alex Browning and a group of high school students, who survived a doomed airliner.</t>
+          <t>When Patrizia Reggiani, an outsider from humble beginnings, marries into the Gucci family, her unbridled ambition begins to unravel their legacy and triggers a reckless spiral of betrayal, decadence, revenge, and ultimately...murder.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>House of Gucci</t>
+          <t>The Amazing Spider-Man 2</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -3812,77 +3812,77 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>'2021</t>
+          <t>'2014</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>156000</v>
+        <v>531000</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>2h 38m</t>
+          <t>2h 22m</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>Lady Gaga, Adam Driver, Al Pacino</t>
+          <t>Andrew Garfield, Emma Stone, Jamie Foxx</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Ridley Scott</t>
+          <t>Marc Webb</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>When Patrizia Reggiani, an outsider from humble beginnings, marries into the Gucci family, her unbridled ambition begins to unravel their legacy and triggers a reckless spiral of betrayal, decadence, revenge, and ultimately...murder.</t>
+          <t>When New York is put under siege by Oscorp, it is up to Spider-Man to save the city he swore to protect as well as his loved ones.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>The Amazing Spider-Man 2</t>
+          <t>See How They Run</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>'2014</t>
+          <t>'2022</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>531000</v>
+        <v>62000</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>2h 22m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>Andrew Garfield, Emma Stone, Jamie Foxx</t>
+          <t>Kieran Hodgson, Pearl Chanda, Gregory Cox</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Marc Webb</t>
+          <t>Tom George</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>When New York is put under siege by Oscorp, it is up to Spider-Man to save the city he swore to protect as well as his loved ones.</t>
+          <t>In the West End of 1950s London, plans for a movie version of a smash-hit play come to an abrupt halt after a pivotal member of the crew is murdered.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>See How They Run</t>
+          <t>Friends with Benefits</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -3892,77 +3892,77 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>'2022</t>
+          <t>'2011</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>62000</v>
+        <v>390000</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>Kieran Hodgson, Pearl Chanda, Gregory Cox</t>
+          <t>Mila Kunis, Justin Timberlake, Patricia Clarkson</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Tom George</t>
+          <t>Will Gluck</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>In the West End of 1950s London, plans for a movie version of a smash-hit play come to an abrupt halt after a pivotal member of the crew is murdered.</t>
+          <t>A young man and woman decide to take their friendship to the next level without becoming a couple, but soon discover that adding sex only leads to complications.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Friends with Benefits</t>
+          <t>Alice in Wonderland</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>'2011</t>
+          <t>'2010</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>390000</v>
+        <v>436000</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>Mila Kunis, Justin Timberlake, Patricia Clarkson</t>
+          <t>Mia Wasikowska, Johnny Depp, Helena Bonham Carter</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Will Gluck</t>
+          <t>Tim Burton</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>A young man and woman decide to take their friendship to the next level without becoming a couple, but soon discover that adding sex only leads to complications.</t>
+          <t>Nineteen-year-old Alice returns to the magical world from her childhood adventure, where she reunites with her old friends and learns of her true destiny: to end the Red Queen's reign of terror.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Alice in Wonderland</t>
+          <t>Fall</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -3972,37 +3972,37 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>'2010</t>
+          <t>'2022</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>436000</v>
+        <v>99000</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>Mia Wasikowska, Johnny Depp, Helena Bonham Carter</t>
+          <t>Grace Caroline Currey, Virginia Gardner, Mason Gooding</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Tim Burton</t>
+          <t>Scott Mann</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>Nineteen-year-old Alice returns to the magical world from her childhood adventure, where she reunites with her old friends and learns of her true destiny: to end the Red Queen's reign of terror.</t>
+          <t>When a high-rise climb goes wrong, best friends Becky and Hunter find themselves stuck at the top of a 2,000-foot TV tower.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>Minions</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4012,77 +4012,77 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>'2022</t>
+          <t>'2015</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>99000</v>
+        <v>255000</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>Grace Caroline Currey, Virginia Gardner, Mason Gooding</t>
+          <t>Sandra Bullock, Jon Hamm, Michael Keaton</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Scott Mann</t>
+          <t>Kyle Balda</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>When a high-rise climb goes wrong, best friends Becky and Hunter find themselves stuck at the top of a 2,000-foot TV tower.</t>
+          <t>Minions Stuart, Kevin, and Bob are recruited by Scarlet Overkill, a supervillain who, alongside her inventor husband Herb, hatches a plot to take over the world.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Minions</t>
+          <t>Scream</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>'2015</t>
+          <t>'2022</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>255000</v>
+        <v>155000</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 54m</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>Sandra Bullock, Jon Hamm, Michael Keaton</t>
+          <t>Neve Campbell, Courteney Cox, David Arquette</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Kyle Balda</t>
+          <t>Matt Bettinelli-Olpin</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>Minions Stuart, Kevin, and Bob are recruited by Scarlet Overkill, a supervillain who, alongside her inventor husband Herb, hatches a plot to take over the world.</t>
+          <t>25 years after a streak of brutal murders shocked the quiet town of Woodsboro, Calif., a new killer dons the Ghostface mask and begins targeting a group of teenagers to resurrect secrets from the town's deadly past.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Scream</t>
+          <t>Scream 2</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4092,15 +4092,15 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>'2022</t>
+          <t>'1997</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>155000</v>
+        <v>207000</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>1h 54m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
@@ -4110,19 +4110,19 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Matt Bettinelli-Olpin</t>
+          <t>Wes Craven</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>25 years after a streak of brutal murders shocked the quiet town of Woodsboro, Calif., a new killer dons the Ghostface mask and begins targeting a group of teenagers to resurrect secrets from the town's deadly past.</t>
+          <t>Two years after the first series of murders, as Sidney acclimates to college life, someone donning the Ghostface costume begins a new string of killings.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Scream 2</t>
+          <t>Scary Movie</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4132,37 +4132,37 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>'1997</t>
+          <t>'2000</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>207000</v>
+        <v>283000</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>Neve Campbell, Courteney Cox, David Arquette</t>
+          <t>Anna Faris, Jon Abrahams, Marlon Wayans</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Wes Craven</t>
+          <t>Keenen Ivory Wayans</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>Two years after the first series of murders, as Sidney acclimates to college life, someone donning the Ghostface costume begins a new string of killings.</t>
+          <t>A year after disposing of the body of a man they accidentally killed, a group of dumb teenagers are stalked by a bumbling serial killer.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Scary Movie</t>
+          <t>Neighbors</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4172,77 +4172,77 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>'2000</t>
+          <t>'2014</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>283000</v>
+        <v>326000</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>1h 37m</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Anna Faris, Jon Abrahams, Marlon Wayans</t>
+          <t>Seth Rogen, Rose Byrne, Zac Efron</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Keenen Ivory Wayans</t>
+          <t>Nicholas Stoller</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>A year after disposing of the body of a man they accidentally killed, a group of dumb teenagers are stalked by a bumbling serial killer.</t>
+          <t>After they are forced to live next to a fraternity house, a couple with a newborn baby do whatever they can to take them down.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Neighbors</t>
+          <t>Cars 2</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>'2014</t>
+          <t>'2011</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>326000</v>
+        <v>213000</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>1h 37m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>Seth Rogen, Rose Byrne, Zac Efron</t>
+          <t>Owen Wilson, Larry the Cable Guy, Michael Caine</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Nicholas Stoller</t>
+          <t>John Lasseter</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>After they are forced to live next to a fraternity house, a couple with a newborn baby do whatever they can to take them down.</t>
+          <t>Star race car Lightning McQueen and his pal Mater head overseas to compete in the World Grand Prix race. But the road to the championship becomes rocky as Mater gets caught up in an intriguing adventure of his own: international espionage.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Cars 2</t>
+          <t>Scream 4</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4256,73 +4256,73 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>213000</v>
+        <v>169000</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>Owen Wilson, Larry the Cable Guy, Michael Caine</t>
+          <t>Neve Campbell, Courteney Cox, David Arquette</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>John Lasseter</t>
+          <t>Wes Craven</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>Star race car Lightning McQueen and his pal Mater head overseas to compete in the World Grand Prix race. But the road to the championship becomes rocky as Mater gets caught up in an intriguing adventure of his own: international espionage.</t>
+          <t>Ten years have passed, and Sidney Prescott, who has put herself back together thanks in part to her writing, is visited by the Ghostface Killer.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Scream 4</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>'2011</t>
+          <t>'2022</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>169000</v>
+        <v>90000</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>Neve Campbell, Courteney Cox, David Arquette</t>
+          <t>Christian Bale, Margot Robbie, John David Washington</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Wes Craven</t>
+          <t>David O. Russell</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>Ten years have passed, and Sidney Prescott, who has put herself back together thanks in part to her writing, is visited by the Ghostface Killer.</t>
+          <t>In the 1930s, three friends witness a murder, are framed for it, and uncover one of the most outrageous plots in American history.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Ticket to Paradise</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -4336,64 +4336,24 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>90000</v>
+        <v>62000</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>Christian Bale, Margot Robbie, John David Washington</t>
+          <t>George Clooney, Sean Lynch, Julia Roberts</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>David O. Russell</t>
+          <t>Ol Parker</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>In the 1930s, three friends witness a murder, are framed for it, and uncover one of the most outrageous plots in American history.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Ticket to Paradise</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>'2022</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>62000</v>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>1h 44m</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>George Clooney, Sean Lynch, Julia Roberts</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>Ol Parker</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
         <is>
           <t>A divorced couple teams up and travels to Bali to stop their daughter from making the same mistake they think they made 25 years ago.</t>
         </is>
